--- a/Microsoft Excel/Tanvir/Day 03.xlsx
+++ b/Microsoft Excel/Tanvir/Day 03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taroto/Documents/GitHub/Spreadsheet/Microsoft Excel/Tanvir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7921C65A-F56F-D64D-82ED-A2FA822B8C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F626493-7048-DB4F-B145-0FC39B532858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{A63FB73A-360F-084F-9B0F-D745C22A7AF8}"/>
   </bookViews>
